--- a/medicine/Enfance/Point_Horror/Point_Horror.xlsx
+++ b/medicine/Enfance/Point_Horror/Point_Horror.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Point Horror est une série de livres d'horreur pour jeunes adultes. La série était surtout populaire auprès des adolescentes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Point Horror est une série de livres d'horreur pour jeunes adultes. La série était surtout populaire auprès des adolescentes.
 Elle n'a été que partiellement édité en France.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série Point Horror a été lancée en 1991 par Scholastic Inc, l'éditeur rééditant plusieurs de ses titres précédents sous la bannière Point Horror. Les auteurs qui ont publié sous le label Point Horror comprennent R.L. Stine, Lisa J. Smith, Diane Hoh, Richie Tankersley Cusick, Christopher Pike et Caroline B. Cooney[2]. La série est remarquable car Blind Date est l'une des premières œuvres de R.L. Stine et a contribué à lancer sa carrière[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série Point Horror a été lancée en 1991 par Scholastic Inc, l'éditeur rééditant plusieurs de ses titres précédents sous la bannière Point Horror. Les auteurs qui ont publié sous le label Point Horror comprennent R.L. Stine, Lisa J. Smith, Diane Hoh, Richie Tankersley Cusick, Christopher Pike et Caroline B. Cooney. La série est remarquable car Blind Date est l'une des premières œuvres de R.L. Stine et a contribué à lancer sa carrière.
 Après une absence de huit ans, Scholastic a annoncé son intention de publier trois nouveaux titres en mai 2013, et d'autres suivront plus tard dans l'année.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Critiques littéraires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que la série Point Horror n'ait pas attiré beaucoup d'attention sérieuse, la romancière britannique pour enfants et historienne de la littérature Gillian Avery a noté que la série était « invariablement structurée autour d'oppositions » en ce sens que les romans d'horreur pour adolescents « ne mettent pas fin à l'opposition entre le réel et l'imaginaire, mais affirment au contraire cette distinction »[4]. Roy Fisher a écrit que la série incarnait et représentait « les peurs et les angoisses des jeunes à propos de leur vie en général et de l'école en particulier »[5]. D'autres ont noté la similitude de la série avec Stephen King, affirmant qu'il y avait « peu de différence entre l'approche et la conception... à part la longueur »[6].
-Will Davis, du Guardian, a attribué le déclin de la série à des exigences plus élevées de la part des lecteurs adolescents et à l'absence de problèmes réels dans la série[7].
-La série a reçu des critiques négatives pour sa représentation des personnages féminins. L'historienne britannique de l'éducation Mary Hilton a écrit dans son livre Potent Fictions : Children's Literacy and the Challenge of Popular Culture (Routledge, 1996), de nombreux jeunes lecteurs considèrent que les personnages féminins sont ceux qui sont « bouleversés, tués ou largués »[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la série Point Horror n'ait pas attiré beaucoup d'attention sérieuse, la romancière britannique pour enfants et historienne de la littérature Gillian Avery a noté que la série était « invariablement structurée autour d'oppositions » en ce sens que les romans d'horreur pour adolescents « ne mettent pas fin à l'opposition entre le réel et l'imaginaire, mais affirment au contraire cette distinction ». Roy Fisher a écrit que la série incarnait et représentait « les peurs et les angoisses des jeunes à propos de leur vie en général et de l'école en particulier ». D'autres ont noté la similitude de la série avec Stephen King, affirmant qu'il y avait « peu de différence entre l'approche et la conception... à part la longueur ».
+Will Davis, du Guardian, a attribué le déclin de la série à des exigences plus élevées de la part des lecteurs adolescents et à l'absence de problèmes réels dans la série.
+La série a reçu des critiques négatives pour sa représentation des personnages féminins. L'historienne britannique de l'éducation Mary Hilton a écrit dans son livre Potent Fictions : Children's Literacy and the Challenge of Popular Culture (Routledge, 1996), de nombreux jeunes lecteurs considèrent que les personnages féminins sont ceux qui sont « bouleversés, tués ou largués ».
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Ramifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a eu trois ramifications de la série Point Horror qui, bien que portant toutes le logo « Point Horror », sont souvent considérées comme des séries à part entière. Il s'agit de Point Horror Unleashed, Nightmare Hall et Mutant Point Horror. Nightmare Hall est unique parmi les séries dérivées car la série été écrite entièrement par Diane Hoh.
 </t>
@@ -608,9 +626,11 @@
           <t>Télévision</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2019, il a été annoncé qu'une anthologie allait être adapté pour HBO Max[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2019, il a été annoncé qu'une anthologie allait être adapté pour HBO Max.
 </t>
         </is>
       </c>
@@ -641,37 +661,280 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1979
-Avalanche - Arthur Roth
-1985
-Slumber Party - Christopher Pike
-1986
-Quel rendez-vous ! (Blind Date) - R.L. Stine
-Weekend - Christopher Pike
-1987
-Twisted - R.L. Stine
-Through the Hidden Door - Rosemary Wells
-1988
-The Lifeguard - Richie Tankersley Cusick
-The Nightmare Man - Tessa Krailing
-1989
-Party Line - A. Bates
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avalanche - Arthur Roth</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Slumber Party - Christopher Pike</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Quel rendez-vous ! (Blind Date) - R.L. Stine
+Weekend - Christopher Pike</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Twisted - R.L. Stine
+Through the Hidden Door - Rosemary Wells</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Lifeguard - Richie Tankersley Cusick
+The Nightmare Man - Tessa Krailing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Party Line - A. Bates
 The Fog - Caroline B. Cooney
 La Baby-sitter (The Babysitter) - R.L. Stine
 Trick or Treat - Richie Tankersley Cusick
 My Secret Admirer - Carol Ellis
-Prom Dress - Lael Littke
-1990
-The Snow - Caroline B. Cooney
+Prom Dress - Lael Littke</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Snow - Caroline B. Cooney
 The Fire - Caroline B. Cooney
 April Fools - Richie Tankersley Cusick
 Final Exam - A. Bates
 Funhouse - Diane Hoh
 Beach Party - R.L. Stine
 Le Retour de Bob (The Boyfriend) - R.L. Stine
-Teacher's Pet - Richie Tankersley Cusick
-1991
-Thirteen: 13 Tales of Horror An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
+Teacher's Pet - Richie Tankersley Cusick</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Thirteen: 13 Tales of Horror An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
 01) Collect Call - Christopher Pike
 02) Lucinda - Lael Littke
 03) The Guccioli Miniature - Jay Bennett
@@ -692,9 +955,43 @@
 The Cheerleader - Caroline B. Cooney
 La Rouquine (The Girlfriend) - R.L. Stine
 The Invitation - Diane Hoh
-Le Bonhomme de neige (The Snowman) - R.L. Stine
-1992
-Beach House - R.L. Stine
+Le Bonhomme de neige (The Snowman) - R.L. Stine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Beach House - R.L. Stine
 Fatal Secrets - Richie Tankersley Cusick
 Freeze Tag - Caroline B. Cooney
 Délit de fuite (Hit and Run) - R.L. Stine
@@ -708,9 +1005,43 @@
 The Return of the Vampire - Caroline B. Cooney
 The Train - Diane Hoh
 The Waitress - Sinclair Smith
-The Window - Carol Ellis
-1993
-Camp Fear - Carol Ellis
+The Window - Carol Ellis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camp Fear - Carol Ellis
 Dream Date - Sinclair Smith
 Halloween Night - R.L. Stine
 Help Wanted - Richie Tankersley Cusick
@@ -725,8 +1056,43 @@
 The Stranger - Caroline B. Cooney
 The Vampire's Promise - Caroline B. Cooney
 La Gardienne III (The Babysitter III) - R.L. Stine
-1994
-13 More Tales of Horror An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13 More Tales of Horror An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
 01) The Cat-Dogs - Susan Price
 02) The Piano - Diane Hoh
 03) The Devil's Footprints - Malcolm Rose
@@ -760,9 +1126,43 @@
 The Forbidden Game 3: The Kill - L.J. Smith
 The Watcher - Lael Littke
 The Yearbook - Peter Lerangis
-I Saw You That Night! - R.L. Stine
-1995
-13 Again An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
+I Saw You That Night! - R.L. Stine</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>13 Again An Anthology of short horror stories ; (Ces courtes histoires n'ont pas été publiées individuellement)
 01) Anjelica's Room - Laurence Staig
 02) Foxgloves - Susan Price
 03) The Ultimate Assassin - Malcolm Rose
@@ -784,10 +1184,44 @@
 The Claw - Carmen Adams
 The Mummy - Barbara Steiner
 The Surfer - Linda Cargill
-Vampire's Love 1: Blood Curse - Janice Harrell[10]
-Vampire's Love 2: Blood Spell - Janice Harrell
-1996
-Amnesia - Sinclair Smith
+Vampire's Love 1: Blood Curse - Janice Harrell
+Vampire's Love 2: Blood Spell - Janice Harrell</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Amnesia - Sinclair Smith
 Double Date - Sinclair Smith
 Homecoming Queen - John Hall
 Krazy 4 U - A. Bates
@@ -798,52 +1232,426 @@
 The Bride - D.E. Athkins
 The Stalker - Carol Ellis
 Unleashed - Blood Sinister - Celia Rees
-Unleashed - Transformer - Philip Gross
-1997
-Unleashed - At Gehenna's Door - Peter Beere
+Unleashed - Transformer - Philip Gross</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Unleashed - At Gehenna's Door - Peter Beere
 Unleashed - The Carver - Jenny Jones
-Unleashed - The Vanished - Celia Rees
-1998
-Unleashed - Catchman - Chris Wooding
+Unleashed - The Vanished - Celia Rees</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Unleashed - Catchman - Chris Wooding
 Unleashed - Darker - Andrew Matthews
 Unleashed - House of Bones - Graham Masterton
-Unleashed - The Hanging Tree - Paul Stewart
-1999
-Unleashed - Eve's Party - Nick Turnbull
+Unleashed - The Hanging Tree - Paul Stewart</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Unleashed - Eve's Party - Nick Turnbull
 Unleashed - Facetaker - Philip Gross
 Unleashed - The Ghost Wife - Susan Price
-Unleashed - Skinners - John Gordon
-2000
-Unleashed - Amy - Samantha Lee
+Unleashed - Skinners - John Gordon</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Unleashed - Amy - Samantha Lee
 Unleashed - In Spirit - Nick Turnbull
 Unleashed - The Bogle - Samantha Lee
-Unleashed - Scissorman - John Brindley
-2001
-Unleashed - Fright Train - Paul Stewart
+Unleashed - Scissorman - John Brindley</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Unleashed - Fright Train - Paul Stewart
 Unleashed - Lowlake - Roger Davenport
-Unleashed - The Cunning Man - Celia Rees
-2002
-Unleashed - Moonchildren - Andrew Mathews
+Unleashed - The Cunning Man - Celia Rees</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Unleashed - Moonchildren - Andrew Mathews
 Unleashed - The Belltower - Samantha Lee
-Unleashed - Welcome Stranger - Anthony Masters
-2003
-Demon - Samantha Lee
+Unleashed - Welcome Stranger - Anthony Masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Demon - Samantha Lee
 The Dark - Linda Cargill
 The Unseen Part 1 - It Begins - Richie Tankersley Cusick
-X-Isle - Peter Lerangis
-2004
-The Dark II - Linda Cargill
+X-Isle - Peter Lerangis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>The Dark II - Linda Cargill
 The Unseen Part 2 - Rest in Peace - Richie Tankersley Cusick
 Return to X-Isle - Peter Lerangis
-Demon II - Samantha Lee
-2005
-The Unseen part 3 - Blood Brothers - Richie Tankersley Cusick
-The Unseen part 4 - Sin and Salvation - Richie Tankersley Cusick
-2013
-Defriended - Ruth Baron
-Identity Theft - Anna Davies
-2014
-Wickedpedia - Chris Van Etten
+Demon II - Samantha Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>The Unseen part 3 - Blood Brothers - Richie Tankersley Cusick
+The Unseen part 4 - Sin and Salvation - Richie Tankersley Cusick</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Defriended - Ruth Baron
+Identity Theft - Anna Davies</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Point_Horror</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_Horror</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Wickedpedia - Chris Van Etten
 Followers - Anna Davies</t>
         </is>
       </c>
